--- a/data/CS1/case18_3/case18_3_2020.xlsx
+++ b/data/CS1/case18_3/case18_3_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A24145-2E98-4247-B23F-A4D0331960C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DD1DC-8BAD-44E0-BAB4-9E07AAE04165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="7290" windowWidth="21600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -14048,19 +14048,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$6)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -24646,7 +24646,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>7.8403584163847481E-6</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -24666,55 +24666,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>4.7675779464204067E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>9.4451197769040859E-2</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.24645046630703116</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.30755805979701922</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.34160569626040038</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.34794070586083936</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.34155161378805882</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.29163669196306113</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.19272161013074882</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>4.7084152418396266E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>3.6801682362622292E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>3.1681448294779191E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>2.4241108164944683E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -24747,7 +24747,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>7.8403584163847481E-6</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -24767,55 +24767,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>4.7675779464204067E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>9.4451197769040859E-2</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.24645046630703116</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.30755805979701922</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.34160569626040038</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.34794070586083936</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.34155161378805882</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.29163669196306113</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.19272161013074882</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>4.7084152418396266E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>3.6801682362622292E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>3.1681448294779191E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>2.4241108164944683E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -24848,7 +24848,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>7.8403584163847481E-6</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -24868,55 +24868,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>4.7675779464204067E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>9.4451197769040859E-2</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.24645046630703116</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.30755805979701922</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.34160569626040038</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.34794070586083936</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.34155161378805882</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.29163669196306113</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.19272161013074882</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>4.7084152418396266E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>3.6801682362622292E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>3.1681448294779191E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>2.4241108164944683E-5</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -24949,7 +24949,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>7.8403584163847481E-6</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -24969,55 +24969,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>4.7675779464204067E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>9.4451197769040859E-2</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.24645046630703116</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.30755805979701922</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.34160569626040038</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.34794070586083936</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.34155161378805882</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.29163669196306113</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.19272161013074882</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>4.7084152418396266E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>3.6801682362622292E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>3.1681448294779191E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>2.4241108164944683E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -25050,7 +25050,7 @@
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>7.8403584163847481E-6</v>
       </c>
       <c r="E7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -25070,55 +25070,55 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>4.7675779464204067E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>9.4451197769040859E-2</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.24645046630703116</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.30755805979701922</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.34160569626040038</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.34794070586083936</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.34155161378805882</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.29163669196306113</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.19272161013074882</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>4.7084152418396266E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>3.6801682362622292E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>3.1681448294779191E-5</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>2.4241108164944683E-5</v>
       </c>
       <c r="V7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -25317,7 +25317,7 @@
       </c>
       <c r="C3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>1.3627049180327867E-5</v>
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25341,51 +25341,51 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>3.8200204918032781E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>7.5186885245901627E-2</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.17885860655737706</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.24069040983606557</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.29519803278688522</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.35057090163934423</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.292559118852459</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.21497243852459016</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.10312491803278688</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>2.1544364754098357E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>1.3770491803278686E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>6.0245901639344258E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -25418,7 +25418,7 @@
       </c>
       <c r="C4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>1.3627049180327867E-5</v>
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25442,51 +25442,51 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>3.8200204918032781E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>7.5186885245901627E-2</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.17885860655737706</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.24069040983606557</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.29519803278688522</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.35057090163934423</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.292559118852459</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.21497243852459016</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.10312491803278688</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>2.1544364754098357E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>1.3770491803278686E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>6.0245901639344258E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -25519,7 +25519,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>1.3627049180327867E-5</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25543,51 +25543,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>3.8200204918032781E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>7.5186885245901627E-2</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.17885860655737706</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.24069040983606557</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.29519803278688522</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.35057090163934423</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.292559118852459</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.21497243852459016</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.10312491803278688</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>2.1544364754098357E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>1.3770491803278686E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>6.0245901639344258E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>1.3627049180327867E-5</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25644,51 +25644,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>3.8200204918032781E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>7.5186885245901627E-2</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.17885860655737706</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.24069040983606557</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.29519803278688522</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.35057090163934423</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.292559118852459</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.21497243852459016</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.10312491803278688</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>2.1544364754098357E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>1.3770491803278686E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>6.0245901639344258E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -25721,7 +25721,7 @@
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>1.3627049180327867E-5</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25745,51 +25745,51 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>3.8200204918032781E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>7.5186885245901627E-2</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.17885860655737706</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.24069040983606557</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.29519803278688522</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.35057090163934423</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.292559118852459</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.21497243852459016</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.10312491803278688</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>2.1544364754098357E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>1.3770491803278686E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>6.0245901639344258E-5</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -26016,47 +26016,47 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>4.130283472538597E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>9.0189113515565675E-2</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.20997730005062007</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.30280846621108581</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.31172400974436842</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.29598685459377366</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.23173769298911664</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.17851063022019739</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>7.5744748165021511E-2</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>1.3372484813971144E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>2.170336623639585E-5</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -26117,47 +26117,47 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>4.130283472538597E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>9.0189113515565675E-2</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.20997730005062007</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.30280846621108581</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.31172400974436842</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.29598685459377366</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.23173769298911664</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.17851063022019739</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>7.5744748165021511E-2</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>1.3372484813971144E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>2.170336623639585E-5</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -26218,47 +26218,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>4.130283472538597E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>9.0189113515565675E-2</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.20997730005062007</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.30280846621108581</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.31172400974436842</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.29598685459377366</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.23173769298911664</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.17851063022019739</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>7.5744748165021511E-2</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>1.3372484813971144E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>2.170336623639585E-5</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -26319,47 +26319,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>4.130283472538597E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>9.0189113515565675E-2</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.20997730005062007</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.30280846621108581</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.31172400974436842</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.29598685459377366</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.23173769298911664</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.17851063022019739</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>7.5744748165021511E-2</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>1.3372484813971144E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>2.170336623639585E-5</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -26420,47 +26420,47 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>4.130283472538597E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>9.0189113515565675E-2</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.20997730005062007</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.30280846621108581</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.31172400974436842</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.29598685459377366</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.23173769298911664</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.17851063022019739</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>7.5744748165021511E-2</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>1.3372484813971144E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>2.170336623639585E-5</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -27607,8 +27607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27635,7 +27635,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -27646,7 +27646,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -27657,7 +27657,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -27668,7 +27668,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -27679,7 +27679,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -44676,7 +44676,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46540,7 +46540,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>9.8788516046447833E-6</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46560,55 +46560,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>5.7687693151686923E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.11995302116668188</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.31792110153607017</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.39982547773612503</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.41334289247508443</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.45232291761909116</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.44060158178659586</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.3703785987930876</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.23704758046082106</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>5.9326032047179289E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>4.637011977690409E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>3.9284995885526197E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>2.9331740879583067E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46641,7 +46641,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>9.8788516046447833E-6</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46661,55 +46661,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>5.7687693151686923E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.11995302116668188</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.31792110153607017</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.39982547773612503</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.41334289247508443</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.45232291761909116</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.44060158178659586</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.3703785987930876</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.23704758046082106</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>5.9326032047179289E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>4.637011977690409E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>3.9284995885526197E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>2.9331740879583067E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46742,7 +46742,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>9.8788516046447833E-6</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46762,55 +46762,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>5.7687693151686923E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.11995302116668188</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.31792110153607017</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.39982547773612503</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.41334289247508443</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.45232291761909116</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.44060158178659586</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.3703785987930876</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.23704758046082106</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>5.9326032047179289E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>4.637011977690409E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>3.9284995885526197E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>2.9331740879583067E-5</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46843,7 +46843,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>9.8788516046447833E-6</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46863,55 +46863,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>5.7687693151686923E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.11995302116668188</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.31792110153607017</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.39982547773612503</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.41334289247508443</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.45232291761909116</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.44060158178659586</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.3703785987930876</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.23704758046082106</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>5.9326032047179289E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>4.637011977690409E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>3.9284995885526197E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>2.9331740879583067E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46944,7 +46944,7 @@
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>9.8788516046447833E-6</v>
       </c>
       <c r="E7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46964,55 +46964,55 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>5.7687693151686923E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.11995302116668188</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.31792110153607017</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.39982547773612503</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.41334289247508443</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.45232291761909116</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.44060158178659586</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.3703785987930876</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.23704758046082106</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>5.9326032047179289E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>4.637011977690409E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>3.9284995885526197E-5</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>2.9331740879583067E-5</v>
       </c>
       <c r="V7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -47211,7 +47211,7 @@
       </c>
       <c r="C3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>1.7306352459016393E-5</v>
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47235,51 +47235,51 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>4.9660266393442617E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>9.6991081967213108E-2</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.23072760245901641</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.30567682049180328</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.38375744262295081</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.45574217213114748</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.3803268545081967</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.262266375</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.13096864590163934</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>2.7576786885245896E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>1.6662295081967208E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>7.3499999999999998E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47312,7 +47312,7 @@
       </c>
       <c r="C4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>1.7306352459016393E-5</v>
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47336,51 +47336,51 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>4.9660266393442617E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>9.6991081967213108E-2</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.23072760245901641</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.30567682049180328</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.38375744262295081</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.45574217213114748</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.3803268545081967</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.262266375</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.13096864590163934</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>2.7576786885245896E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>1.6662295081967208E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>7.3499999999999998E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47413,7 +47413,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>1.7306352459016393E-5</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47437,51 +47437,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>4.9660266393442617E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>9.6991081967213108E-2</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.23072760245901641</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.30567682049180328</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.38375744262295081</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.45574217213114748</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.3803268545081967</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.262266375</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.13096864590163934</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>2.7576786885245896E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>1.6662295081967208E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>7.3499999999999998E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>1.7306352459016393E-5</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47538,51 +47538,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>4.9660266393442617E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>9.6991081967213108E-2</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.23072760245901641</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.30567682049180328</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.38375744262295081</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.45574217213114748</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.3803268545081967</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.262266375</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.13096864590163934</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>2.7576786885245896E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>1.6662295081967208E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>7.3499999999999998E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47615,7 +47615,7 @@
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>1.7306352459016393E-5</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47639,51 +47639,51 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>4.9660266393442617E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>9.6991081967213108E-2</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.23072760245901641</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.30567682049180328</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.38375744262295081</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.45574217213114748</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.3803268545081967</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.262266375</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.13096864590163934</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>2.7576786885245896E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>1.6662295081967208E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>7.3499999999999998E-5</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47910,47 +47910,47 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>5.1215515059478602E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.11093260962414578</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.26037185206276886</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.384566752088079</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.40212397257023524</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.35518422551252837</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.28503736237661348</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.22849360668185267</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>9.7710725132877749E-2</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>1.7250505410022775E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>2.8214376107314605E-5</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -48011,47 +48011,47 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>5.1215515059478602E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.11093260962414578</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.26037185206276886</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.384566752088079</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.40212397257023524</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.35518422551252837</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.28503736237661348</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.22849360668185267</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>9.7710725132877749E-2</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>1.7250505410022775E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>2.8214376107314605E-5</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -48112,47 +48112,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>5.1215515059478602E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.11093260962414578</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.26037185206276886</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.384566752088079</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.40212397257023524</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.35518422551252837</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.28503736237661348</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.22849360668185267</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>9.7710725132877749E-2</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>1.7250505410022775E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>2.8214376107314605E-5</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -48213,47 +48213,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>5.1215515059478602E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.11093260962414578</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.26037185206276886</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.384566752088079</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.40212397257023524</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.35518422551252837</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.28503736237661348</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.22849360668185267</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>9.7710725132877749E-2</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>1.7250505410022775E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>2.8214376107314605E-5</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -48314,47 +48314,47 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>5.1215515059478602E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.11093260962414578</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.26037185206276886</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.384566752088079</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.40212397257023524</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.35518422551252837</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.28503736237661348</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.22849360668185267</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>9.7710725132877749E-2</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>1.7250505410022775E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>2.8214376107314605E-5</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -50610,7 +50610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D4FD3-4E6B-4832-B159-4E067DAE6C14}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
